--- a/src/test/resources/package1/Class2TestData.xlsx
+++ b/src/test/resources/package1/Class2TestData.xlsx
@@ -8,16 +8,15 @@
   <sheets>
     <sheet name="Constructors" r:id="rId3" sheetId="1"/>
     <sheet name="getGetString" r:id="rId4" sheetId="2"/>
-    <sheet name="getSetStringString" r:id="rId5" sheetId="3"/>
-    <sheet name="getM2" r:id="rId6" sheetId="4"/>
-    <sheet name="getM1int" r:id="rId7" sheetId="5"/>
-    <sheet name="getM1String" r:id="rId8" sheetId="6"/>
+    <sheet name="getM1int" r:id="rId5" sheetId="3"/>
+    <sheet name="getM1String" r:id="rId6" sheetId="4"/>
+    <sheet name="getM2" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>getClass2</t>
   </si>
@@ -26,15 +25,6 @@
   </si>
   <si>
     <t>getGetStringResult</t>
-  </si>
-  <si>
-    <t>getSetStringStringParameter0</t>
-  </si>
-  <si>
-    <t>getSetStringStringResult</t>
-  </si>
-  <si>
-    <t>getM2Result</t>
   </si>
   <si>
     <t>getM1intParameter0</t>
@@ -47,6 +37,9 @@
   </si>
   <si>
     <t>getM1StringResult</t>
+  </si>
+  <si>
+    <t>getM2Result</t>
   </si>
 </sst>
 </file>
@@ -165,7 +158,10 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -182,34 +178,9 @@
   <sheetData>
     <row r="2">
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="2">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2"/>
+      <c r="C2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/test/resources/package1/Class2TestData.xlsx
+++ b/src/test/resources/package1/Class2TestData.xlsx
@@ -7,10 +7,10 @@
   </bookViews>
   <sheets>
     <sheet name="Constructors" r:id="rId3" sheetId="1"/>
-    <sheet name="getGetString" r:id="rId4" sheetId="2"/>
-    <sheet name="getM1int" r:id="rId5" sheetId="3"/>
-    <sheet name="getM1String" r:id="rId6" sheetId="4"/>
-    <sheet name="getM2" r:id="rId7" sheetId="5"/>
+    <sheet name="getgetString" r:id="rId4" sheetId="2"/>
+    <sheet name="getm1int" r:id="rId5" sheetId="3"/>
+    <sheet name="getm1String" r:id="rId6" sheetId="4"/>
+    <sheet name="getm2" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
@@ -24,22 +24,22 @@
     <t>getClass2StringParameter0</t>
   </si>
   <si>
-    <t>getGetStringResult</t>
+    <t>getgetStringResult</t>
   </si>
   <si>
-    <t>getM1intParameter0</t>
+    <t>getm1intParameter0</t>
   </si>
   <si>
-    <t>getM1intResult</t>
+    <t>getm1intResult</t>
   </si>
   <si>
-    <t>getM1StringParameter0</t>
+    <t>getm1StringParameter0</t>
   </si>
   <si>
-    <t>getM1StringResult</t>
+    <t>getm1StringResult</t>
   </si>
   <si>
-    <t>getM2Result</t>
+    <t>getm2Result</t>
   </si>
 </sst>
 </file>
